--- a/CustomLocalization/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
@@ -17,14 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t>background_ancestry_Davion.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Federated Suns. MechWarriors who hail from the Federated Suns tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.
----
-Decades ago, your family came to the Aurigan Reach from the Federated Suns. MechWarriors who hail from the Federated Suns tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.
 </t>
   </si>
   <si>
@@ -35,21 +33,18 @@
   </si>
   <si>
     <t xml:space="preserve">[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]] continues: "Either way, Commander. When you've got some time, check it out in the Mechbay, and we can look it over, or mix it up a little from stock configuration."
- You reply: "I'll be right along, Yang. Keep up the good work."
----
-[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]] continues: "Either way, Commander. When you've got some time, check it out in the Mechbay, and we can look it over, or mix it up a little from stock configuration."
 You reply: "I'll be right along, Yang. Keep up the good work."
 </t>
   </si>
   <si>
     <t xml:space="preserve">[[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Ян]]: "Как бы там ни было, командир, когда найдёте время - загляните в мехотсек, просто полюбоваться или изменить стоковую конфигурацию."
-  Ваш ответ: "Я загляну, Ян. Так держать."</t>
+Ваш ответ: "Я загляну, Ян. Так держать."</t>
   </si>
   <si>
     <t>background_career_mercenary.Description.Details</t>
   </si>
   <si>
-    <t>A [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] Mercenary. War does Pay Well. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Athletic&amp;Mechwarrior. Random Advanced Unit.&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">A [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] Mercenary. War does Pay Well.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Athletic&amp;Mechwarrior. Random Advanced Unit.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Наёмник из [[DM.BaseDescriptionDefs[LoreInnerSphere],Внутренней Сферы]]. Война хорошо оплачивается. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Атлетичный&amp;Мехвоин. Случайная продвинутая единица техники.&lt;/color&gt;&lt;/b&gt;</t>
@@ -58,7 +53,7 @@
     <t>background_career_gladiator.Description.Details</t>
   </si>
   <si>
-    <t>A [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris]] Gladiator. Living for the Spectacle!. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Gladiator&amp;Honest. Random Specialist Items.&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">A [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris]] Gladiator. Living for the Spectacle!.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Gladiator&amp;Honest. Random Specialist Items.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Гладиатор [[DM.BaseDescriptionDefs[LoreSolaris7],Соляриса]]. Жить ради зрелища! &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Гладиатор&amp;Честный. Случайные профильные предметы.&lt;/color&gt;&lt;/b&gt;</t>
@@ -68,8 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">A Survivor of Operation Damocles, you have left your Military past to look for something that less likely results in you getting stranded among Crazy Clanners.
----
-A Survivor of Operation Damocles, you have left your Military past to look for something that less likely results in you getting stranded among Crazy Clanners.
 </t>
   </si>
   <si>
@@ -89,25 +82,14 @@
   </si>
   <si>
     <t xml:space="preserve">As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.
- Finally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]
----
-As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.
 Finally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
   </si>
   <si>
-    <t xml:space="preserve">As the heir to a noble family, you grew up wanting for nothing. And as it turns out… you couldn't stand a life of pampered nobility.
-  Finally, one night you stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
-  </si>
-  <si>
     <t>background_youth_loner.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">As the heir to a noble family, you grew up wanting for nothing. As it turns out, you couldn't stand a life of pampered nobility. Finally, one night you stole away with the family's ancestral Blackjack and set off to find a new life to call your own.
----
-As the heir to a noble family, you grew up wanting for nothing. As it turns out, you couldn't stand a life of pampered nobility. Finally, one night you stole away with the family's ancestral Blackjack and set off to find a new life to call your own.
 </t>
   </si>
   <si>
@@ -118,8 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself.
----
-As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself.
 </t>
   </si>
   <si>
@@ -130,19 +110,10 @@
   </si>
   <si>
     <t xml:space="preserve">As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.
- With nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]
----
-As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.
 With nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
   </si>
   <si>
-    <t xml:space="preserve">As you grew older, you watched your family's fortune, income, and influence slowly dwindle away - until there was nothing left. Your parents, driven to despair, took their own lives.
-  With nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
-  </si>
-  <si>
     <t>background_ancestry_Freeborn.BioDescription</t>
   </si>
   <si>
@@ -255,8 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Capellan Confederation. MechWarriors who hail from the Capellan Confederation are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them. Most Capellans take great pride in their citizenship, which must be earned through service to the state.
----
-Decades ago, your family came to the Aurigan Reach from the Capellan Confederation. MechWarriors who hail from the Capellan Confederation are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them. Most Capellans take great pride in their citizenship, which must be earned through service to the state.
 </t>
   </si>
   <si>
@@ -267,8 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Deep Periphery. MechWarriors that hail from the Deep Periphery are rare, but even rarer is the MechWarrior who will admit to such an origin. Beyond the outermost edges of the Periphery lie depths of space that remain uncharted and unknown to most of human civilization, littered with abandoned colonies and small outposts.
----
-Decades ago, your family came to the Aurigan Reach from the Deep Periphery. MechWarriors that hail from the Deep Periphery are rare, but even rarer is the MechWarrior who will admit to such an origin. Beyond the outermost edges of the Periphery lie depths of space that remain uncharted and unknown to most of human civilization, littered with abandoned colonies and small outposts.
 </t>
   </si>
   <si>
@@ -279,8 +246,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Draconis Combine. MechWarriors who hail from the Combine tend to be fierce, disciplined, and relentless fighters. Over centuries of rule, House Kurita has united the Combine into a single culture, heavily molded around medieval Japanese society.
----
-Decades ago, your family came to the Aurigan Reach from the Draconis Combine. MechWarriors who hail from the Combine tend to be fierce, disciplined, and relentless fighters. Over centuries of rule, House Kurita has united the Combine into a single culture, heavily molded around medieval Japanese society.
 </t>
   </si>
   <si>
@@ -291,8 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Free Worlds League. MechWarriors who hail from the Free Worlds League tend to be passionate, enduring fighters who value justice and equality above all else. The cultural diversity and independence of the Free Worlds League is at once the greatest strength of the Free Worlds League, and its greatest weaknesses.
----
-Decades ago, your family came to the Aurigan Reach from the Free Worlds League. MechWarriors who hail from the Free Worlds League tend to be passionate, enduring fighters who value justice and equality above all else. The cultural diversity and independence of the Free Worlds League is at once the greatest strength of the Free Worlds League, and its greatest weaknesses.
 </t>
   </si>
   <si>
@@ -303,8 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Lyran Commonwealth. MechWarriors who hail from the Lyran Commonwealth tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield. Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth.
----
-Decades ago, your family came to the Aurigan Reach from the Lyran Commonwealth. MechWarriors who hail from the Lyran Commonwealth tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield. Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth.
 </t>
   </si>
   <si>
@@ -315,8 +276,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Magistracy of Canopus. MechWarriors who hail from the Magistracy of Canopus often favor clever and unorthodox tactics on the field. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.
----
-Decades ago, your family came to the Aurigan Reach from the Magistracy of Canopus. MechWarriors who hail from the Magistracy of Canopus often favor clever and unorthodox tactics on the field. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.
 </t>
   </si>
   <si>
@@ -333,8 +292,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decades ago, your family came to the Aurigan Reach from the Taurian Concordat. MechWarriors who hail from the Taurian Concordat tend to be stubborn and aggressive but are nonetheless skilled and perceptive combatants. Founded as a constitutional monarchy under the leadership of House Calderon, the Taurian Concordat is the strongest military power of the Rimward Periphery.
----
-Decades ago, your family came to the Aurigan Reach from the Taurian Concordat. MechWarriors who hail from the Taurian Concordat tend to be stubborn and aggressive but are nonetheless skilled and perceptive combatants. Founded as a constitutional monarchy under the leadership of House Calderon, the Taurian Concordat is the strongest military power of the Rimward Periphery.
 </t>
   </si>
   <si>
@@ -360,8 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">Desperate to escape your past, you roamed the Rimward Periphery as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.
----
-Desperate to escape your past, you roamed the Rimward Periphery as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.
 </t>
   </si>
   <si>
@@ -381,8 +336,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eager to escape your past, you took your Blackjack and your skills as a MechWarrior to the famed arena planet of Solaris VII. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.
----
-Eager to escape your past, you took your Blackjack and your skills as a MechWarrior to the famed arena planet of Solaris VII. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.
 </t>
   </si>
   <si>
@@ -393,22 +346,13 @@
   </si>
   <si>
     <t xml:space="preserve">Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]
----
-Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
   </si>
   <si>
-    <t xml:space="preserve">Eager to get away from it all, you joined up with a minor [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
-  </si>
-  <si>
     <t>background_career_mercenary.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">Eager to get away from your past and make a name for yourself, you joined up with a minor Inner Sphere mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.
----
-Eager to get away from your past and make a name for yourself, you joined up with a minor Inner Sphere mercenary unit. Integrating into the tight-knit crew took time, but you eventually proved your worth and became part of the family.
 </t>
   </si>
   <si>
@@ -418,7 +362,7 @@
     <t>background_career_soldier.Description.Details</t>
   </si>
   <si>
-    <t>Enlisted as a Soldier, War always bring a Paycheck. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Dependable&amp;Brave. Large assortment of Ammo and Weapons.&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Enlisted as a Soldier, War always bring a Paycheck.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Dependable&amp;Brave. Large assortment of Ammo and Weapons.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Записан в солдаты. Война всегда хорошо оплачивается. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Надежный&amp;Храбрый. Широкий ассортимент оружия и боеприпасов.&lt;/color&gt;&lt;/b&gt;</t>
@@ -713,114 +657,58 @@
   </si>
   <si>
     <t xml:space="preserve">MechWarriors that hail from the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]] are rare, but even rarer is the MechWarrior who will admit to such an origin. 
- Beyond the outermost edges of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]] lie depths of space that remain uncharted and unknown to most of human civilization. Little is known about these regions, but they are far from uninhabited. The Deep Periphery is littered with abandoned colonies and small outposts, isolated from the rest of humanity. After the fall of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]], General [[DM.BaseDescriptionDefs[LoreKerensky],Aleksandr Kerensky]] led the remnants of the [[DM.BaseDescriptionDefs[LoreSLDF],Star League Defense Force]] into the Deep Periphery, disappearing from the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and from recorded history.
----
-MechWarriors that hail from the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]] are rare, but even rarer is the MechWarrior who will admit to such an origin. 
 Beyond the outermost edges of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]] lie depths of space that remain uncharted and unknown to most of human civilization. Little is known about these regions, but they are far from uninhabited. The Deep Periphery is littered with abandoned colonies and small outposts, isolated from the rest of humanity. After the fall of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]], General [[DM.BaseDescriptionDefs[LoreKerensky],Aleksandr Kerensky]] led the remnants of the [[DM.BaseDescriptionDefs[LoreSLDF],Star League Defense Force]] into the Deep Periphery, disappearing from the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and from recorded history.</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors that hail from the [[DM.BaseDescriptionDefs[LoreDeepPeriphery],Deep Periphery]] are rare, but even rarer is the MechWarrior who will admit to such an origin. 
-  Beyond the outermost edges of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]] lie depths of space that remain uncharted and unknown to most of human civilization. Little is known about these regions, but they are far from uninhabited. The Deep Periphery is littered with abandoned colonies and small outposts, isolated from the rest of humanity. After the fall of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]], General [[DM.BaseDescriptionDefs[LoreKerensky],Aleksandr Kerensky]] led the remnants of the [[DM.BaseDescriptionDefs[LoreSLDF],Star League Defense Force]] into the Deep Periphery, disappearing from the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and from recorded history.</t>
-  </si>
-  <si>
     <t>background_ancestry_Davion.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Davion],Federated Suns]] tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.
- Though nearly extinguished by the [[DM.Factions[faction_Kurita],Draconis Combine]] in the [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],First Succession War]], the Federated Suns - a constitutional monarchy ruled by the renowned [[DM.BaseDescriptionDefs[LoreHouseDavion],House Davion]] - has become arguably the most powerful of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]. Through skillful military campaigns and subtle diplomacy, House Davion has significantly increased the number of star systems under its control in the last two centuries.
----
-MechWarriors who hail from the [[DM.Factions[faction_Davion],Federated Suns]] tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.
 Though nearly extinguished by the [[DM.Factions[faction_Kurita],Draconis Combine]] in the [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],First Succession War]], the Federated Suns - a constitutional monarchy ruled by the renowned [[DM.BaseDescriptionDefs[LoreHouseDavion],House Davion]] - has become arguably the most powerful of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]. Through skillful military campaigns and subtle diplomacy, House Davion has significantly increased the number of star systems under its control in the last two centuries.</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Davion],Federated Suns]] tend to possess more finely honed skills and better equipment than their counterparts from other regions of space. They often see themselves as righteous warriors and champions of liberty - sometimes to a fault.
-  Though nearly extinguished by the [[DM.Factions[faction_Kurita],Draconis Combine]] in the [[DM.BaseDescriptionDefs[LoreFirstSuccessionWar],First Succession War]], the Federated Suns - a constitutional monarchy ruled by the renowned [[DM.BaseDescriptionDefs[LoreHouseDavion],House Davion]] - has become arguably the most powerful of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]. Through skillful military campaigns and subtle diplomacy, House Davion has significantly increased the number of star systems under its control in the last two centuries.</t>
-  </si>
-  <si>
     <t>background_ancestry_Kurita.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Kurita],Combine]] tend to be fierce, disciplined, and relentless fighters, no matter the odds they might face on the battlefield.
- Although the Draconis Combine is as ethnically diverse as any of the vast interstellar empires, it is also one of the most culturally homogenous. Over centuries of rule, the founding [[DM.BaseDescriptionDefs[LoreHouseKurita],House Kurita]] has succeeded in uniting the people of the Combine into a single culture, one heavily molded around medieval Japanese society. While some, most notably the descendants of the conquered [[DM.BaseDescriptionDefs[LoreRasalhague],Principality of Rasalhague]], continue to chafe at the uniformity of Draconis society, overall this has created a more cohesive populace and military than seen in the other Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]].
----
-MechWarriors who hail from the [[DM.Factions[faction_Kurita],Combine]] tend to be fierce, disciplined, and relentless fighters, no matter the odds they might face on the battlefield.
 Although the Draconis Combine is as ethnically diverse as any of the vast interstellar empires, it is also one of the most culturally homogenous. Over centuries of rule, the founding [[DM.BaseDescriptionDefs[LoreHouseKurita],House Kurita]] has succeeded in uniting the people of the Combine into a single culture, one heavily molded around medieval Japanese society. While some, most notably the descendants of the conquered [[DM.BaseDescriptionDefs[LoreRasalhague],Principality of Rasalhague]], continue to chafe at the uniformity of Draconis society, overall this has created a more cohesive populace and military than seen in the other Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]].</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Kurita],Combine]] tend to be fierce, disciplined, and relentless fighters, no matter the odds they might face on the battlefield.
-  Although the Draconis Combine is as ethnically diverse as any of the vast interstellar empires, it is also one of the most culturally homogenous. Over centuries of rule, the founding [[DM.BaseDescriptionDefs[LoreHouseKurita],House Kurita]] has succeeded in uniting the people of the Combine into a single culture, one heavily molded around medieval Japanese society. While some, most notably the descendants of the conquered [[DM.BaseDescriptionDefs[LoreRasalhague],Principality of Rasalhague]], continue to chafe at the uniformity of Draconis society, overall this has created a more cohesive populace and military than seen in the other Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]].</t>
-  </si>
-  <si>
     <t>background_ancestry_Liao.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Liao],Capellan Confederation]] are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them.
- The Capellan Confederation has suffered the most at the hands of the other [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] over the last two centuries of war, having lost nearly half of the territory it once controlled at the height of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s rule. Over time, the leadership of [[DM.BaseDescriptionDefs[LoreHouseLiao],House Liao]] has transformed the Capellan Confederation into a socialist police state with a highly regulated economy. Most Capellans take great pride in their citizenship, which must be earned through service to the state.
----
-MechWarriors who hail from the [[DM.Factions[faction_Liao],Capellan Confederation]] are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them.
 The Capellan Confederation has suffered the most at the hands of the other [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] over the last two centuries of war, having lost nearly half of the territory it once controlled at the height of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s rule. Over time, the leadership of [[DM.BaseDescriptionDefs[LoreHouseLiao],House Liao]] has transformed the Capellan Confederation into a socialist police state with a highly regulated economy. Most Capellans take great pride in their citizenship, which must be earned through service to the state.</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Liao],Capellan Confederation]] are dedicated and steadfast combatants, capable of holding the line and often surprising those opponents who would make the mistake of underestimating them.
-  The Capellan Confederation has suffered the most at the hands of the other [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] over the last two centuries of war, having lost nearly half of the territory it once controlled at the height of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s rule. Over time, the leadership of [[DM.BaseDescriptionDefs[LoreHouseLiao],House Liao]] has transformed the Capellan Confederation into a socialist police state with a highly regulated economy. Most Capellans take great pride in their citizenship, which must be earned through service to the state.</t>
-  </si>
-  <si>
     <t>background_ancestry_Magistracy.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]] can run the gamut of skill and fighting styles, but they often favor clever and unorthodox tactics on the field.
- While smaller than the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Magistracy of Canopus is one of the major powers of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. The Magistracy is a matriarchal society led by a Magestrix. This is an elected position open to any woman but largely controlled by [[DM.BaseDescriptionDefs[LoreHouseCentrella],House Centrella]] due to the family's popularity. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.
----
-MechWarriors who hail from the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]] can run the gamut of skill and fighting styles, but they often favor clever and unorthodox tactics on the field.
 While smaller than the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Magistracy of Canopus is one of the major powers of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. The Magistracy is a matriarchal society led by a Magestrix. This is an elected position open to any woman but largely controlled by [[DM.BaseDescriptionDefs[LoreHouseCentrella],House Centrella]] due to the family's popularity. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_MagistracyOfCanopus],Magistracy of Canopus]] can run the gamut of skill and fighting styles, but they often favor clever and unorthodox tactics on the field.
-  While smaller than the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Magistracy of Canopus is one of the major powers of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. The Magistracy is a matriarchal society led by a Magestrix. This is an elected position open to any woman but largely controlled by [[DM.BaseDescriptionDefs[LoreHouseCentrella],House Centrella]] due to the family's popularity. The Magistracy supports an open society that ensures the personal liberty of all citizens and their right to live their lives as they see fit.</t>
-  </si>
-  <si>
     <t>background_ancestry_Marik.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Marik],Free Worlds League]] tend to be passionate, enduring fighters who value justice and equality above all else.
- The oldest, and theoretically most democratic, of the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Free Worlds League is actually a broad coalition of many minor noble houses. For most of the League's history, it has been ruled under martial law by a Captain-General, who by tradition is from [[DM.BaseDescriptionDefs[LoreHouseMarik],House Marik]]. The cultural diversity and relative independence of its component regions are at once the greatest strength of the Free Worlds League, and its greatest weaknesses.
----
-MechWarriors who hail from the [[DM.Factions[faction_Marik],Free Worlds League]] tend to be passionate, enduring fighters who value justice and equality above all else.
 The oldest, and theoretically most democratic, of the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Free Worlds League is actually a broad coalition of many minor noble houses. For most of the League's history, it has been ruled under martial law by a Captain-General, who by tradition is from [[DM.BaseDescriptionDefs[LoreHouseMarik],House Marik]]. The cultural diversity and relative independence of its component regions are at once the greatest strength of the Free Worlds League, and its greatest weaknesses.</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Marik],Free Worlds League]] tend to be passionate, enduring fighters who value justice and equality above all else.
-  The oldest, and theoretically most democratic, of the great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]] of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], the Free Worlds League is actually a broad coalition of many minor noble houses. For most of the League's history, it has been ruled under martial law by a Captain-General, who by tradition is from [[DM.BaseDescriptionDefs[LoreHouseMarik],House Marik]]. The cultural diversity and relative independence of its component regions are at once the greatest strength of the Free Worlds League, and its greatest weaknesses.</t>
-  </si>
-  <si>
     <t>background_ancestry_Steiner.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Steiner],Lyran Commonwealth]] tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield.
- Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth, ruled by [[DM.BaseDescriptionDefs[LoreHouseSteiner],House Steiner]]. Despite a number of humiliating defeats in the first two [[DM.BaseDescriptionDefs[LoreSuccessionWars],Succession Wars]], the Lyran Commonwealth has bounced back thanks to the combined strength of its economy (the biggest of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]) and its control of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]'s largest functioning BattleMech factories. What the Lyran Commonwealth may lack in military prowess, it makes up for with raw numbers and industrial scale.
----
-MechWarriors who hail from the [[DM.Factions[faction_Steiner],Lyran Commonwealth]] tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield.
 Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth, ruled by [[DM.BaseDescriptionDefs[LoreHouseSteiner],House Steiner]]. Despite a number of humiliating defeats in the first two [[DM.BaseDescriptionDefs[LoreSuccessionWars],Succession Wars]], the Lyran Commonwealth has bounced back thanks to the combined strength of its economy (the biggest of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]) and its control of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]'s largest functioning BattleMech factories. What the Lyran Commonwealth may lack in military prowess, it makes up for with raw numbers and industrial scale.</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_Steiner],Lyran Commonwealth]] tend to be hardy, well equipped, and well trained, though they have also earned a reputation for not being particularly strategic thinkers on the battlefield.
-  Wealth is the greatest strength of the merchant princes of the Lyran Commonwealth, ruled by [[DM.BaseDescriptionDefs[LoreHouseSteiner],House Steiner]]. Despite a number of humiliating defeats in the first two [[DM.BaseDescriptionDefs[LoreSuccessionWars],Succession Wars]], the Lyran Commonwealth has bounced back thanks to the combined strength of its economy (the biggest of the five great [[DM.BaseDescriptionDefs[LoreSuccessorState],Successor States]]) and its control of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]]'s largest functioning BattleMech factories. What the Lyran Commonwealth may lack in military prowess, it makes up for with raw numbers and industrial scale.</t>
-  </si>
-  <si>
     <t>background_ancestry_Taurians.OptionDescription</t>
   </si>
   <si>
     <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. 
- Founded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]].
----
-MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. 
 Founded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]].</t>
   </si>
   <si>
-    <t xml:space="preserve">MechWarriors who hail from the [[DM.Factions[faction_TaurianConcordat],Taurian Concordat]] tend to be stubborn and aggressive. They can be quick to anger, but they are nonetheless skilled and perceptive combatants. 
-  Founded as a constitutional monarchy under the leadership of [[DM.BaseDescriptionDefs[LoreHouseCalderon],House Calderon]], the Taurian Concordat is the strongest military power of the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It is also one of the oldest surviving realms of human civilization, having been formed long before the creation of the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]. Taurian citizens enjoy extensive freedoms guaranteed by the Concordat Charter, and take pride in defending those freedoms through compulsory service. The Taurian Concordat has long had an antagonistic relationship with the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]], particularly with the [[DM.Factions[faction_Davion],Federated Suns]].</t>
-  </si>
-  <si>
     <t>background_career_mercenary.Description.Name</t>
   </si>
   <si>
@@ -861,8 +749,6 @@
   </si>
   <si>
     <t xml:space="preserve">Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile. You stole away with the family's ancestral Blackjack and set off to find a new life to call your own.
----
-Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile. You stole away with the family's ancestral Blackjack and set off to find a new life to call your own.
 </t>
   </si>
   <si>
@@ -873,23 +759,14 @@
   </si>
   <si>
     <t xml:space="preserve">Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.
- You stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]
----
-Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.
 You stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
   </si>
   <si>
-    <t xml:space="preserve">Once the promising young scion of your family, you committed an unforgivable transgression and were sentenced to life in exile.
-  You stole away with the family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] and set off to find a new life to call your own.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
-  </si>
-  <si>
     <t>background_career_pirate.Description.Details</t>
   </si>
   <si>
-    <t>Order and Discipline!. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Officer&amp;Command. Vehicle: [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]]&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Order and Discipline!.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Officer&amp;Command. Vehicle: [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]]&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Порядок и дисциплина! &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Офицер&amp;Командование. Личный транспорт: [[DM.BaseDescriptionDefs[LoreAWACS],AWACS]]&lt;/color&gt;&lt;/b&gt;</t>
@@ -1070,25 +947,14 @@
   </si>
   <si>
     <t xml:space="preserve">The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.
- After selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]
----
-The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.
 After selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
   </si>
   <si>
-    <t xml:space="preserve">The rest of your family died in a freak [[DM.BaseDescriptionDefs[LoreJumpShip],JumpShip]] accident, after which you discovered they had left nothing behind but piles of debt.
-  After selling everything to settle the debt, you set off on your own, with only your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to your name.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
-  </si>
-  <si>
     <t>background_youth_accident.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">The rest of your family died in a freak JumpShip accident, after which you discovered they had left nothing behind but piles of debt. After selling everything to settle the debt, you set off on your own, with only your family's ancestral Blackjack left to your name.
----
-The rest of your family died in a freak JumpShip accident, after which you discovered they had left nothing behind but piles of debt. After selling everything to settle the debt, you set off on your own, with only your family's ancestral Blackjack left to your name.
 </t>
   </si>
   <si>
@@ -1108,16 +974,9 @@
   </si>
   <si>
     <t xml:space="preserve">There is no easy way to characterize MechWarriors hailing from the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors.
- The nations and minor noble houses of the Rimward Periphery have long played a role in shaping humanity - the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s downfall began in the Periphery, eventually leading to the current tattered state of these disparate star systems on the edge of known space. The Periphery is still the galaxy's frontier, where the Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] play deadly politics, petty bandit kingdoms thrive, and pirate bands prey on the minor noble houses trying to survive in this hostile environment.
----
-There is no easy way to characterize MechWarriors hailing from the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors.
 The nations and minor noble houses of the Rimward Periphery have long played a role in shaping humanity - the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s downfall began in the Periphery, eventually leading to the current tattered state of these disparate star systems on the edge of known space. The Periphery is still the galaxy's frontier, where the Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] play deadly politics, petty bandit kingdoms thrive, and pirate bands prey on the minor noble houses trying to survive in this hostile environment.</t>
   </si>
   <si>
-    <t xml:space="preserve">There is no easy way to characterize MechWarriors hailing from the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] - they can be anything from petty thugs to ruthless tacticians to skilled and honorable warriors.
-  The nations and minor noble houses of the Rimward Periphery have long played a role in shaping humanity - the [[DM.BaseDescriptionDefs[LoreStarLeague],Star League]]'s downfall began in the Periphery, eventually leading to the current tattered state of these disparate star systems on the edge of known space. The Periphery is still the galaxy's frontier, where the Great Houses of the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] play deadly politics, petty bandit kingdoms thrive, and pirate bands prey on the minor noble houses trying to survive in this hostile environment.</t>
-  </si>
-  <si>
     <t>CommanderGearEventGladiator.outcome_0_0.Options0.0.Details</t>
   </si>
   <si>
@@ -1131,22 +990,13 @@
   </si>
   <si>
     <t xml:space="preserve">Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]
----
-Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
   </si>
   <si>
-    <t xml:space="preserve">Tired of living under the authority of others, you fell in with a local pirate gang in the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]]. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
-  </si>
-  <si>
     <t>background_career_pirate.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">Tired of living under the authority of others, you fell in with a local pirate gang in the Rimward Periphery. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.
----
-Tired of living under the authority of others, you fell in with a local pirate gang in the Rimward Periphery. It was an unruly crew, but an effective one - roaming the Periphery afforded your outfit with a steady supply of poorly defended merchant caravans and supply depots to prey upon. While raids did occasionally devolve into combat, you quickly learned that successful piracy is mostly about being in the right place, at the right time, with the right threats and a good show of force.
 </t>
   </si>
   <si>
@@ -1156,7 +1006,7 @@
     <t>background_career_merchant_guard.Description.Details</t>
   </si>
   <si>
-    <t>Trading all the odd bits and goods you could. &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Merchant&amp;Dishonest. 3 Mill Starting Money.&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">Trading all the odd bits and goods you could.  &lt;b&gt;&lt;color=#ff9900&gt;Quirk: Merchant&amp;Dishonest. 3 Mill Starting Money.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>Торговля всевозможными товарами. &lt;b&gt;&lt;color=#ff9900&gt;Склонность: Торговец&amp;Нечестный. 3 миллиона личный капитал.&lt;/color&gt;&lt;/b&gt;</t>
@@ -1178,22 +1028,13 @@
   </si>
   <si>
     <t xml:space="preserve">Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]
----
-Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsure of your prospects, you traveled to [[DM.BaseDescriptionDefs[LoreCoromodir],Coromodir]], the capital of the [[DM.BaseDescriptionDefs[LoreAuriganCoalition],Aurigan Coalition]], and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]</t>
-  </si>
-  <si>
     <t>background_career_soldier.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">Unsure of your prospects, you traveled to Coromodir, the capital of the Aurigan Coalition, and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.
----
-Unsure of your prospects, you traveled to Coromodir, the capital of the Aurigan Coalition, and enlisted in the Coalition military. You quickly rose through the ranks, distinguishing yourself as a reliable MechWarrior. Life as a soldier wasn't glamorous, but it suited you just fine.
 </t>
   </si>
   <si>
@@ -1249,14 +1090,11 @@
   </si>
   <si>
     <t xml:space="preserve">You get a message from your Chief MechTech [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]]:
- "Commander {Commander.LastName}, we have managed to re-assemble that mech you had shipped up here. What a beauty she is. Those are some strings you must have pulled with your contacts back home."
----
-You get a message from your Chief MechTech [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Yang]]:
 "Commander {Commander.LastName}, we have managed to re-assemble that mech you had shipped up here. What a beauty she is. Those are some strings you must have pulled with your contacts back home."</t>
   </si>
   <si>
     <t xml:space="preserve">Вы получили сообщение от главного теха, [[DM.BaseDescriptionDefs[Wulf_Lore_Yang],Яна]]:
-  "Командир {Commander.LastName}, мы смогли собрать заново меха, что в привезли. Этот мех прекрасен. Видимо, у вас хорошие связи там, дома."</t>
+"Командир {Commander.LastName}, мы смогли собрать заново меха, что в привезли. Этот мех прекрасен. Видимо, у вас хорошие связи там, дома."</t>
   </si>
   <si>
     <t>background_ancestry_Taurians.Description.Details</t>
@@ -1362,16 +1200,9 @@
   </si>
   <si>
     <t xml:space="preserve">You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]
----
-You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
   </si>
   <si>
-    <t xml:space="preserve">You roamed the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Rimward Periphery]] as a freelancer, signing on for whatever odd contracts you could find as a MechWarrior for hire. It was a solitary life - but as you became more comfortable with the itinerant lifestyle, you found you were able to make a decent living helping the people of the frontier.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorTactics],Tactics]]</t>
-  </si>
-  <si>
     <t>background_career_veteran.OptionDescription</t>
   </si>
   <si>
@@ -1379,22 +1210,13 @@
   </si>
   <si>
     <t xml:space="preserve">You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]
----
-You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]</t>
   </si>
   <si>
-    <t xml:space="preserve">You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the [[DM.BaseDescriptionDefs[LoreInnerSphere],Inner Sphere]] and the [[DM.BaseDescriptionDefs[LoreRimwardPeriphery],Periphery]]. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorPiloting],Piloting]]</t>
-  </si>
-  <si>
     <t>background_career_merchant_guard.BioDescription</t>
   </si>
   <si>
     <t xml:space="preserve">You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the Inner Sphere and the Periphery. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.
----
-You signed on as a guard for a small trading guild, providing security as the guild's caravan made trading runs between the Inner Sphere and the Periphery. It was a largely uneventful life, but you were able to put your MechWarrior skills to good use in the occasional scuffle with pirates and uncooperative local governments.
 </t>
   </si>
   <si>
@@ -1405,16 +1227,9 @@
   </si>
   <si>
     <t xml:space="preserve">You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]
----
-You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]</t>
   </si>
   <si>
-    <t xml:space="preserve">You took your skills as a MechWarrior to the famed arena planet of [[DM.BaseDescriptionDefs[LoreSolaris7],Solaris VII]]. There, you eked out a living as a gladiator, fighting for the crowd in minor arenas, getting by from paycheck to paycheck.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]]</t>
-  </si>
-  <si>
     <t>backgroundquestion_ancestry.Description.Name</t>
   </si>
   <si>
@@ -1428,8 +1243,6 @@
   </si>
   <si>
     <t xml:space="preserve">Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself.
----
-Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house. With nothing but your family's ancestral Blackjack left to call your own, you set off to make a new life for yourself.
 </t>
   </si>
   <si>
@@ -1440,17 +1253,8 @@
   </si>
   <si>
     <t xml:space="preserve">Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.
- With nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.
- +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]
----
-Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.
 With nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.
 +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your family was betrayed and its seat of power destroyed. You defeated the betrayers, but you were the sole surviving member of your house.
-  With nothing but your family's ancestral [[DM.BaseDescriptionDefs[LoreAncestralBlackjack],Blackjack]] left to call your own, you set off to make a new life for yourself.
-  +1 [[DM.BaseDescriptionDefs[StatMechWarriorGunnery],Gunnery]], +1 [[DM.BaseDescriptionDefs[StatMechWarriorGuts],Guts]]</t>
   </si>
   <si>
     <t>background_youth_loner.Description.Details</t>
@@ -1482,17 +1286,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1507,11 +1306,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1806,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1818,37 +1616,31 @@
     <col min="2" max="2" width="90.5703125" customWidth="1" style="2"/>
     <col min="3" max="3" width="88.5703125" customWidth="1" style="2"/>
     <col min="4" max="4" width="15.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="7" width="9.140625" customWidth="1" style="2"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1872,19 +1664,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1">
-      <c r="A5" s="3" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1897,2016 +1686,1896 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" s="3" customFormat="1">
-      <c r="A35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" s="3" customFormat="1">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" s="3" customFormat="1">
-      <c r="A38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" s="3" customFormat="1">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" s="3" customFormat="1">
-      <c r="A45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" s="3" customFormat="1">
-      <c r="A47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" s="3" customFormat="1">
-      <c r="A48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="94" s="3" customFormat="1">
-      <c r="A94" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" s="3" customFormat="1">
-      <c r="A95" s="3" t="s">
+      <c r="C96" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C97" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" s="3" customFormat="1">
-      <c r="A96" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" s="3" customFormat="1">
-      <c r="A97" s="3" t="s">
+      <c r="C99" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" s="3" customFormat="1">
-      <c r="A98" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" s="3" customFormat="1">
-      <c r="A99" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" s="3" customFormat="1">
-      <c r="A100" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" s="3" customFormat="1">
-      <c r="A101" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="C101" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" s="3" customFormat="1">
-      <c r="A108" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" s="3" customFormat="1">
-      <c r="A109" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="139" s="3" customFormat="1">
-      <c r="A139" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" s="3" customFormat="1">
-      <c r="A140" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" s="3" customFormat="1">
-      <c r="A142" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="144" s="3" customFormat="1">
-      <c r="A144" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" s="3" customFormat="1">
-      <c r="A145" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="149" s="3" customFormat="1">
-      <c r="A149" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" s="3" customFormat="1">
-      <c r="A150" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="157" s="3" customFormat="1">
-      <c r="A157" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="169" s="3" customFormat="1">
-      <c r="A169" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-    </row>
-    <row r="170" s="3" customFormat="1">
-      <c r="A170" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-    </row>
-    <row r="171" s="3" customFormat="1">
-      <c r="A171" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-    </row>
-    <row r="172" s="3" customFormat="1">
-      <c r="A172" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" s="3" customFormat="1">
-      <c r="A173" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="175" s="3" customFormat="1">
-      <c r="A175" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-    </row>
-    <row r="176" s="3" customFormat="1">
-      <c r="A176" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueBackgrounds/LocalizationDef.xlsx
@@ -1604,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,8 +1616,8 @@
     <col min="2" max="2" width="90.5703125" customWidth="1" style="2"/>
     <col min="3" max="3" width="88.5703125" customWidth="1" style="2"/>
     <col min="4" max="4" width="15.140625" customWidth="1" style="2"/>
-    <col min="5" max="7" width="9.140625" customWidth="1" style="2"/>
-    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="8" width="9.140625" customWidth="1" style="2"/>
+    <col min="9" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1630,6 +1630,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1641,6 +1644,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1652,6 +1658,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1663,6 +1672,9 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1674,6 +1686,9 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1685,6 +1700,9 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1696,6 +1714,9 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -1707,6 +1728,9 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1718,6 +1742,9 @@
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1729,6 +1756,9 @@
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1740,6 +1770,9 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1751,6 +1784,9 @@
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1762,6 +1798,9 @@
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1773,6 +1812,9 @@
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -1784,6 +1826,9 @@
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1795,6 +1840,9 @@
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1806,6 +1854,9 @@
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1817,6 +1868,9 @@
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1828,6 +1882,9 @@
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1839,6 +1896,9 @@
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1850,6 +1910,9 @@
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -1861,6 +1924,9 @@
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1872,6 +1938,9 @@
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1883,6 +1952,9 @@
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1894,6 +1966,9 @@
       <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1905,6 +1980,9 @@
       <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1916,6 +1994,9 @@
       <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -1927,6 +2008,9 @@
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -1938,6 +2022,9 @@
       <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1949,6 +2036,9 @@
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -1960,6 +2050,9 @@
       <c r="C31" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -1971,6 +2064,9 @@
       <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -1982,6 +2078,9 @@
       <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -1993,6 +2092,9 @@
       <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -2004,6 +2106,9 @@
       <c r="C35" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2015,6 +2120,9 @@
       <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -2026,6 +2134,9 @@
       <c r="C37" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -2037,6 +2148,9 @@
       <c r="C38" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -2048,6 +2162,9 @@
       <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -2059,6 +2176,9 @@
       <c r="C40" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -2070,6 +2190,9 @@
       <c r="C41" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -2081,6 +2204,9 @@
       <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -2092,6 +2218,9 @@
       <c r="C43" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -2103,6 +2232,9 @@
       <c r="C44" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -2114,6 +2246,9 @@
       <c r="C45" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -2125,6 +2260,9 @@
       <c r="C46" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -2136,6 +2274,9 @@
       <c r="C47" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -2147,6 +2288,9 @@
       <c r="C48" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -2158,6 +2302,9 @@
       <c r="C49" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -2169,6 +2316,9 @@
       <c r="C50" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -2180,6 +2330,9 @@
       <c r="C51" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -2191,6 +2344,9 @@
       <c r="C52" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -2202,6 +2358,9 @@
       <c r="C53" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -2213,6 +2372,9 @@
       <c r="C54" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -2224,6 +2386,9 @@
       <c r="C55" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -2235,6 +2400,9 @@
       <c r="C56" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
@@ -2246,6 +2414,9 @@
       <c r="C57" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -2257,6 +2428,9 @@
       <c r="C58" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -2268,6 +2442,9 @@
       <c r="C59" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -2279,6 +2456,9 @@
       <c r="C60" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -2290,6 +2470,9 @@
       <c r="C61" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -2301,6 +2484,9 @@
       <c r="C62" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -2312,6 +2498,9 @@
       <c r="C63" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="E63" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -2323,6 +2512,9 @@
       <c r="C64" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -2334,6 +2526,9 @@
       <c r="C65" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E65" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -2345,6 +2540,9 @@
       <c r="C66" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -2356,6 +2554,9 @@
       <c r="C67" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="E67" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -2367,6 +2568,9 @@
       <c r="C68" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="E68" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -2378,6 +2582,9 @@
       <c r="C69" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="E69" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -2389,6 +2596,9 @@
       <c r="C70" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="E70" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -2400,6 +2610,9 @@
       <c r="C71" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E71" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -2411,6 +2624,9 @@
       <c r="C72" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="E72" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -2422,6 +2638,9 @@
       <c r="C73" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E73" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -2433,6 +2652,9 @@
       <c r="C74" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E74" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -2444,6 +2666,9 @@
       <c r="C75" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -2455,6 +2680,9 @@
       <c r="C76" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -2466,6 +2694,9 @@
       <c r="C77" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E77" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
@@ -2477,6 +2708,9 @@
       <c r="C78" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -2488,6 +2722,9 @@
       <c r="C79" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E79" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -2499,6 +2736,9 @@
       <c r="C80" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E80" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
@@ -2510,6 +2750,9 @@
       <c r="C81" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -2521,6 +2764,9 @@
       <c r="C82" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="E82" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
@@ -2532,6 +2778,9 @@
       <c r="C83" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="E83" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
@@ -2543,6 +2792,9 @@
       <c r="C84" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E84" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -2554,6 +2806,9 @@
       <c r="C85" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E85" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -2565,6 +2820,9 @@
       <c r="C86" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E86" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -2576,6 +2834,9 @@
       <c r="C87" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E87" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
@@ -2587,6 +2848,9 @@
       <c r="C88" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
@@ -2598,6 +2862,9 @@
       <c r="C89" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E89" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
@@ -2609,6 +2876,9 @@
       <c r="C90" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="E90" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
@@ -2620,6 +2890,9 @@
       <c r="C91" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="E91" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
@@ -2631,6 +2904,9 @@
       <c r="C92" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="E92" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
@@ -2642,6 +2918,9 @@
       <c r="C93" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E93" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
@@ -2653,6 +2932,9 @@
       <c r="C94" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="E94" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
@@ -2664,6 +2946,9 @@
       <c r="C95" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E95" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
@@ -2675,6 +2960,9 @@
       <c r="C96" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E96" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
@@ -2686,6 +2974,9 @@
       <c r="C97" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="E97" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
@@ -2697,6 +2988,9 @@
       <c r="C98" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E98" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -2708,6 +3002,9 @@
       <c r="C99" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E99" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -2719,6 +3016,9 @@
       <c r="C100" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="E100" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
@@ -2730,6 +3030,9 @@
       <c r="C101" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="E101" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -2741,6 +3044,9 @@
       <c r="C102" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="E102" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
@@ -2752,6 +3058,9 @@
       <c r="C103" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="E103" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -2763,6 +3072,9 @@
       <c r="C104" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E104" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
@@ -2774,6 +3086,9 @@
       <c r="C105" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E105" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
@@ -2785,6 +3100,9 @@
       <c r="C106" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="E106" s="2">
+        <v>106</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
@@ -2796,6 +3114,9 @@
       <c r="C107" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="E107" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
@@ -2807,6 +3128,9 @@
       <c r="C108" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="E108" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
@@ -2818,6 +3142,9 @@
       <c r="C109" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="E109" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -2829,6 +3156,9 @@
       <c r="C110" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="E110" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
@@ -2840,6 +3170,9 @@
       <c r="C111" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E111" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
@@ -2851,6 +3184,9 @@
       <c r="C112" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="E112" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
@@ -2862,6 +3198,9 @@
       <c r="C113" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="E113" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
@@ -2873,6 +3212,9 @@
       <c r="C114" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="E114" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
@@ -2884,6 +3226,9 @@
       <c r="C115" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="E115" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
@@ -2895,6 +3240,9 @@
       <c r="C116" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="E116" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
@@ -2906,6 +3254,9 @@
       <c r="C117" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="E117" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
@@ -2917,6 +3268,9 @@
       <c r="C118" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="E118" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
@@ -2928,6 +3282,9 @@
       <c r="C119" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="E119" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
@@ -2939,6 +3296,9 @@
       <c r="C120" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E120" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -2950,6 +3310,9 @@
       <c r="C121" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="E121" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
@@ -2961,6 +3324,9 @@
       <c r="C122" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E122" s="2">
+        <v>122</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
@@ -2972,6 +3338,9 @@
       <c r="C123" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E123" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
@@ -2983,6 +3352,9 @@
       <c r="C124" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E124" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
@@ -2994,6 +3366,9 @@
       <c r="C125" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E125" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
@@ -3005,6 +3380,9 @@
       <c r="C126" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E126" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
@@ -3016,6 +3394,9 @@
       <c r="C127" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E127" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
@@ -3027,6 +3408,9 @@
       <c r="C128" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E128" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
@@ -3038,6 +3422,9 @@
       <c r="C129" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E129" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
@@ -3049,6 +3436,9 @@
       <c r="C130" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E130" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
@@ -3060,6 +3450,9 @@
       <c r="C131" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E131" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
@@ -3071,6 +3464,9 @@
       <c r="C132" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="E132" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
@@ -3082,6 +3478,9 @@
       <c r="C133" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="E133" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
@@ -3093,6 +3492,9 @@
       <c r="C134" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="E134" s="2">
+        <v>134</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
@@ -3104,6 +3506,9 @@
       <c r="C135" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="E135" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
@@ -3115,6 +3520,9 @@
       <c r="C136" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="E136" s="2">
+        <v>136</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
@@ -3126,6 +3534,9 @@
       <c r="C137" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="E137" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
@@ -3137,6 +3548,9 @@
       <c r="C138" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="E138" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
@@ -3148,6 +3562,9 @@
       <c r="C139" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="E139" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
@@ -3159,6 +3576,9 @@
       <c r="C140" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="E140" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
@@ -3170,6 +3590,9 @@
       <c r="C141" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="E141" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
@@ -3181,6 +3604,9 @@
       <c r="C142" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="E142" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
@@ -3192,6 +3618,9 @@
       <c r="C143" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="E143" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
@@ -3203,6 +3632,9 @@
       <c r="C144" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E144" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
@@ -3214,6 +3646,9 @@
       <c r="C145" s="2" t="s">
         <v>314</v>
       </c>
+      <c r="E145" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
@@ -3225,6 +3660,9 @@
       <c r="C146" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="E146" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
@@ -3236,6 +3674,9 @@
       <c r="C147" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="E147" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
@@ -3247,6 +3688,9 @@
       <c r="C148" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="E148" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
@@ -3258,6 +3702,9 @@
       <c r="C149" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="E149" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -3269,6 +3716,9 @@
       <c r="C150" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="E150" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
@@ -3280,6 +3730,9 @@
       <c r="C151" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="E151" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -3291,6 +3744,9 @@
       <c r="C152" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="E152" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
@@ -3302,6 +3758,9 @@
       <c r="C153" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="E153" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
@@ -3313,6 +3772,9 @@
       <c r="C154" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="E154" s="2">
+        <v>154</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
@@ -3324,6 +3786,9 @@
       <c r="C155" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="E155" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
@@ -3335,6 +3800,9 @@
       <c r="C156" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="E156" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
@@ -3346,6 +3814,9 @@
       <c r="C157" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="E157" s="2">
+        <v>157</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
@@ -3357,6 +3828,9 @@
       <c r="C158" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="E158" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
@@ -3368,6 +3842,9 @@
       <c r="C159" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="E159" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
@@ -3379,6 +3856,9 @@
       <c r="C160" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="E160" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
@@ -3390,6 +3870,9 @@
       <c r="C161" s="2" t="s">
         <v>356</v>
       </c>
+      <c r="E161" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
@@ -3401,6 +3884,9 @@
       <c r="C162" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="E162" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
@@ -3412,6 +3898,9 @@
       <c r="C163" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="E163" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
@@ -3423,6 +3912,9 @@
       <c r="C164" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E164" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
@@ -3434,6 +3926,9 @@
       <c r="C165" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="E165" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
@@ -3445,6 +3940,9 @@
       <c r="C166" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="E166" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
@@ -3456,6 +3954,9 @@
       <c r="C167" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E167" s="2">
+        <v>167</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
@@ -3467,6 +3968,9 @@
       <c r="C168" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="E168" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
@@ -3478,6 +3982,9 @@
       <c r="C169" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E169" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
@@ -3489,6 +3996,9 @@
       <c r="C170" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E170" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
@@ -3500,6 +4010,9 @@
       <c r="C171" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="E171" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
@@ -3511,6 +4024,9 @@
       <c r="C172" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="E172" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
@@ -3522,6 +4038,9 @@
       <c r="C173" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="E173" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
@@ -3533,6 +4052,9 @@
       <c r="C174" s="2" t="s">
         <v>390</v>
       </c>
+      <c r="E174" s="2">
+        <v>174</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -3544,6 +4066,9 @@
       <c r="C175" s="2" t="s">
         <v>393</v>
       </c>
+      <c r="E175" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -3555,6 +4080,9 @@
       <c r="C176" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="E176" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -3566,6 +4094,9 @@
       <c r="C177" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="E177" s="2">
+        <v>177</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
@@ -3576,6 +4107,9 @@
       </c>
       <c r="C178" s="2" t="s">
         <v>401</v>
+      </c>
+      <c r="E178" s="2">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
